--- a/biology/Botanique/Charte_forestière/Charte_forestière.xlsx
+++ b/biology/Botanique/Charte_forestière/Charte_forestière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charte_foresti%C3%A8re</t>
+          <t>Charte_forestière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une charte forestière de territoire (CFT) (plus souvent dite « Charte forestière ») est en France à la fois le nom d’un processus et du document qui en découle. Cette charte est un document d’orientation, qui peut cependant être décliné en conventions entre gestionnaire forestier et tiers. Elle concerne la forêt et ses abords s'ils constituent des enjeux pour la protection de la forêt.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charte_foresti%C3%A8re</t>
+          <t>Charte_forestière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une circulaire[1]du 15 février 2001 parue avant la loi d'orientation forestière créait « à titre expérimental » des chartes de territoire forestier, devant « devenir un outil d'aménagement et de développement durable des territoires ruraux, insérant davantage les forêts dans leur environnement économique, écologique, social et culturel ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une circulairedu 15 février 2001 parue avant la loi d'orientation forestière créait « à titre expérimental » des chartes de territoire forestier, devant « devenir un outil d'aménagement et de développement durable des territoires ruraux, insérant davantage les forêts dans leur environnement économique, écologique, social et culturel ».
 La loi d'orientation forestière de 2001 a ensuite reconnu le besoin croissant d’associer et informer le public à propos de la gestion forestière et de la protection de la biodiversité forestière. Son article 1er ajoute dans le code forestier un livre préliminaire intitulé « principes fondamentaux de la politique forestière », dont l'article L 1er stipule : « La politique forestière prend en compte les fonctions économique, environnementale et sociale des forêts et participe à l'aménagement du territoire, en vue d'un développement durable. Elle a pour objet d'assurer la gestion durable des forêts et de leurs ressources naturelles, de développer la qualification des emplois en vue de leur pérennisation, de renforcer la compétitivité de la filière de production forestière, de récolte et de valorisation du bois et des autres produits forestiers et de satisfaire les demandes sociales relatives à la forêt. ». La charte forestière est avec l'écosociocertification (qu'elle peut soutenir) l'un des moyens de répondre à ces préoccupations croissantes en matière d’environnement et de développement durable. La loi d’orientation forestière encourage la généralisation du concept de charte forestière de territoire à la France métropolitaine. 
 Une circulaire du 15 février 2001 en précise les modalités.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charte_foresti%C3%A8re</t>
+          <t>Charte_forestière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Contenu et objet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour la loi, « Sur un territoire pertinent au regard des objectifs poursuivis, une charte forestière de territoire peut être établie afin de mener un programme d'actions pluriannuel intégrant, le cas échéant, la multifonctionnalité des forêts locales et visant :
 soit à garantir la satisfaction de demandes environnementales ou sociales particulières concernant la gestion des forêts et des espaces naturels qui leur sont connexes ;
@@ -552,7 +568,7 @@
 soit à favoriser le regroupement technique et économique des propriétaires forestiers, la restructuration foncière ou la gestion groupée à l'échelle d'un massif forestier ;
 soit à renforcer la compétitivité de la filière de production, de récolte, de transformation et de valorisation des produits forestiers. »
 La charte est donc une initiative locale. Elle conduit à élaborer un document d’orientation (compatible avec les orientations régionales forestières (ORF), et à signer des conventions visant l'aménagement et le développement de projets cohérents et collectifs du territoire vis-à-vis de la ressource (au sens large) forestière.
-Au-delà de la seule production et rentabilité forestière, la charte doit conduire à ce que la forêt participe au développement durable du territoire qu’elle concerne (dont pays, agglomération, Parc naturel régional..), en s’appuyant sur sa richesse actuelle et ses potentialités. La « multifonctionnalité »[2] de la forêt et le partenariat entre acteurs est un concept souvent évoqué dans ce contexte. Les thèmes traités sont notamment et par exemple :
+Au-delà de la seule production et rentabilité forestière, la charte doit conduire à ce que la forêt participe au développement durable du territoire qu’elle concerne (dont pays, agglomération, Parc naturel régional..), en s’appuyant sur sa richesse actuelle et ses potentialités. La « multifonctionnalité » de la forêt et le partenariat entre acteurs est un concept souvent évoqué dans ce contexte. Les thèmes traités sont notamment et par exemple :
 La qualité de la gestion et de l'exploitation forestière
 La mobilisation durable des bois (avec débardage cheval, débardage par câble le cas échéant pour protéger les zones vulnérables, et pour ne pas encore fragmenter les forêts...
 Transformation et valorisation du bois, via par exemple des boucles plus locales, sans surexploiter le sol et le milieu, et donc tout en respectant les besoins en bois mort et matière organique de la forêt. La valorisation des bois locaux passe souvent par la promotion de l'usage du bois et parfois par de nouveaux modes de commercialisation et mise sur le marché, des outils de reconnaissance des qualités et propriétés mécaniques des bois, la certification et la promotion et le soutien du bois-énergie
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charte_foresti%C3%A8re</t>
+          <t>Charte_forestière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La charte se base sur ;
 un périmètre (à définir consensuellement)
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Charte_foresti%C3%A8re</t>
+          <t>Charte_forestière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +651,9 @@
           <t>Partenaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont les forestiers et plus généralement la filière bois, les élus locaux, et des représentants de toutes les activités du territoire ayant un rapport direct ou indirect avec la forêt. 
 Un comité de pilotage, un comité technique, et des groupes de travail œuvrent à sa constitution, généralement avec des subventions de l’État, du Département et de la Région.
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Charte_foresti%C3%A8re</t>
+          <t>Charte_forestière</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,9 +685,11 @@
           <t>statistiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, selon le ministère de l'Agriculture et la FNCOFOr[3], 76 CFT étaient signées ou en cours en France, couvrant environ 10 % du territoire national et 25 000 km2 (soit 17 %) de forêt). On  pourrait y ajouter la CFT départementale de l'Isère (charte-mère, subdivisée en plusieurs CFT opérationnelles). Elles concernent surtout le sud, les trois régions Rhône-Alpes, Provence - Alpes - Côte d'Azur et Auvergne regroupant (en 2006) à elles-seules 45 % des CFT.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, selon le ministère de l'Agriculture et la FNCOFOr, 76 CFT étaient signées ou en cours en France, couvrant environ 10 % du territoire national et 25 000 km2 (soit 17 %) de forêt). On  pourrait y ajouter la CFT départementale de l'Isère (charte-mère, subdivisée en plusieurs CFT opérationnelles). Elles concernent surtout le sud, les trois régions Rhône-Alpes, Provence - Alpes - Côte d'Azur et Auvergne regroupant (en 2006) à elles-seules 45 % des CFT.
 </t>
         </is>
       </c>
@@ -678,7 +700,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Charte_foresti%C3%A8re</t>
+          <t>Charte_forestière</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -696,7 +718,9 @@
           <t>Outils</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ce sont ceux de la concertation, du travail collaboratif et de la communication, qui doivent s’appuyer sur un corpus de données, incluant un historique de la situation de la forêt, un état des lieux, des scénarios prospectifs. 
 La DIREN Nord - Pas de Calais a proposé de créer un « profil environnemental forestier » par massif qui pourrait être mis à jour dans le temps, sur le modèle du profil environnemental local, qu’il pourrait enrichir.
